--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H2">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I2">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J2">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N2">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O2">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P2">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q2">
-        <v>0.009302266896666665</v>
+        <v>0.0955339031691111</v>
       </c>
       <c r="R2">
-        <v>0.08372040206999999</v>
+        <v>0.8598051285219999</v>
       </c>
       <c r="S2">
-        <v>1.867945823966287E-06</v>
+        <v>3.738470747501461E-05</v>
       </c>
       <c r="T2">
-        <v>1.87540443092547E-06</v>
+        <v>3.793978917769016E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H3">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I3">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J3">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.484987</v>
       </c>
       <c r="O3">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P3">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q3">
-        <v>0.1282175601934444</v>
+        <v>1.837137731662889</v>
       </c>
       <c r="R3">
-        <v>1.153958041741</v>
+        <v>16.534239584966</v>
       </c>
       <c r="S3">
-        <v>2.574678395954359E-05</v>
+        <v>0.000718916053999723</v>
       </c>
       <c r="T3">
-        <v>2.584958947967879E-05</v>
+        <v>0.0007295903958439558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H4">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I4">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J4">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N4">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O4">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P4">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q4">
-        <v>0.3525889534673332</v>
+        <v>8.999551529897333</v>
       </c>
       <c r="R4">
-        <v>3.173300581205999</v>
+        <v>80.99596376907598</v>
       </c>
       <c r="S4">
-        <v>7.080178095534486E-05</v>
+        <v>0.003521740347570292</v>
       </c>
       <c r="T4">
-        <v>7.108448864920867E-05</v>
+        <v>0.003574030542159002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H5">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I5">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J5">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N5">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O5">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P5">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q5">
-        <v>0.01170612854083333</v>
+        <v>0.5707851063416666</v>
       </c>
       <c r="R5">
-        <v>0.07023677124499998</v>
+        <v>3.424710638049999</v>
       </c>
       <c r="S5">
-        <v>2.350654326043656E-06</v>
+        <v>0.0002233619011033741</v>
       </c>
       <c r="T5">
-        <v>1.573360241349969E-06</v>
+        <v>0.0001511188934468947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H6">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I6">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J6">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N6">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O6">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P6">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q6">
-        <v>1.076152662705444</v>
+        <v>3.623637216936888</v>
       </c>
       <c r="R6">
-        <v>9.685373964348997</v>
+        <v>32.61273495243199</v>
       </c>
       <c r="S6">
-        <v>0.0002160973120402683</v>
+        <v>0.001418016147743481</v>
       </c>
       <c r="T6">
-        <v>0.0002169601769557089</v>
+        <v>0.001439070607464395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H7">
         <v>1.415431</v>
       </c>
       <c r="I7">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J7">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N7">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O7">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P7">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q7">
-        <v>0.07399401457666667</v>
+        <v>0.05303604229988888</v>
       </c>
       <c r="R7">
-        <v>0.6659461311900001</v>
+        <v>0.477324380699</v>
       </c>
       <c r="S7">
-        <v>1.485840086748244E-05</v>
+        <v>2.075427530165985E-05</v>
       </c>
       <c r="T7">
-        <v>1.491772966101094E-05</v>
+        <v>2.106243120952517E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H8">
         <v>1.415431</v>
       </c>
       <c r="I8">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J8">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.484987</v>
       </c>
       <c r="O8">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P8">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q8">
         <v>1.019894626044111</v>
       </c>
       <c r="R8">
-        <v>9.179051634397002</v>
+        <v>9.179051634397</v>
       </c>
       <c r="S8">
-        <v>0.0002048003920729714</v>
+        <v>0.0003991092270406319</v>
       </c>
       <c r="T8">
-        <v>0.0002056181489960899</v>
+        <v>0.0004050351321569765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H9">
         <v>1.415431</v>
       </c>
       <c r="I9">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J9">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N9">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O9">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P9">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q9">
-        <v>2.804635950811333</v>
+        <v>4.996138331904667</v>
       </c>
       <c r="R9">
-        <v>25.241723557302</v>
+        <v>44.96524498714199</v>
       </c>
       <c r="S9">
-        <v>0.0005631861642177819</v>
+        <v>0.001955108750370356</v>
       </c>
       <c r="T9">
-        <v>0.0005654349362056282</v>
+        <v>0.001984137868621361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H10">
         <v>1.415431</v>
       </c>
       <c r="I10">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J10">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N10">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O10">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P10">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q10">
-        <v>0.09311530786083334</v>
+        <v>0.3168737174958333</v>
       </c>
       <c r="R10">
-        <v>0.558691847165</v>
+        <v>1.901242304975</v>
       </c>
       <c r="S10">
-        <v>1.869806063383386E-05</v>
+        <v>0.0001240002851566979</v>
       </c>
       <c r="T10">
-        <v>1.251514732118841E-05</v>
+        <v>8.389428003349193E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H11">
         <v>1.415431</v>
       </c>
       <c r="I11">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J11">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N11">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O11">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P11">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q11">
-        <v>8.56015600234811</v>
+        <v>2.011677219727111</v>
       </c>
       <c r="R11">
-        <v>77.04140402113299</v>
+        <v>18.105094977544</v>
       </c>
       <c r="S11">
-        <v>0.001718925917167122</v>
+        <v>0.0007872175416147447</v>
       </c>
       <c r="T11">
-        <v>0.001725789495673311</v>
+        <v>0.0007989060121923898</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H12">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I12">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J12">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N12">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O12">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P12">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q12">
-        <v>11.50267721674</v>
+        <v>9.116064742841889</v>
       </c>
       <c r="R12">
-        <v>103.52409495066</v>
+        <v>82.044582685577</v>
       </c>
       <c r="S12">
-        <v>0.002309800192804722</v>
+        <v>0.00356733476210181</v>
       </c>
       <c r="T12">
-        <v>0.00231902310043477</v>
+        <v>0.003620301934710678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H13">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I13">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J13">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.484987</v>
       </c>
       <c r="O13">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P13">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q13">
-        <v>158.5468601155287</v>
+        <v>175.3039072810701</v>
       </c>
       <c r="R13">
-        <v>1426.921741039758</v>
+        <v>1577.735165529631</v>
       </c>
       <c r="S13">
-        <v>0.03183707246261582</v>
+        <v>0.06860062318744335</v>
       </c>
       <c r="T13">
-        <v>0.03196419617636757</v>
+        <v>0.06961919343435349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H14">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I14">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J14">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N14">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O14">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P14">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q14">
-        <v>435.992319611492</v>
+        <v>858.7579035461408</v>
       </c>
       <c r="R14">
-        <v>3923.930876503428</v>
+        <v>7728.821131915266</v>
       </c>
       <c r="S14">
-        <v>0.08754963083154427</v>
+        <v>0.3360525630267515</v>
       </c>
       <c r="T14">
-        <v>0.08789921178695306</v>
+        <v>0.3410422136478788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H15">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I15">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J15">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N15">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O15">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P15">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q15">
-        <v>14.475161759885</v>
+        <v>54.46562750032083</v>
       </c>
       <c r="R15">
-        <v>86.85097055931</v>
+        <v>326.793765001925</v>
       </c>
       <c r="S15">
-        <v>0.002906691267942727</v>
+        <v>0.02131370627596175</v>
       </c>
       <c r="T15">
-        <v>0.001945531686301749</v>
+        <v>0.01442011234577023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H16">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I16">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J16">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N16">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O16">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P16">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q16">
-        <v>1330.711841806185</v>
+        <v>345.7757966372791</v>
       </c>
       <c r="R16">
-        <v>11976.40657625566</v>
+        <v>3111.982169735512</v>
       </c>
       <c r="S16">
-        <v>0.267214180738575</v>
+        <v>0.1353103618758498</v>
       </c>
       <c r="T16">
-        <v>0.2682811525546082</v>
+        <v>0.1373194268420499</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H17">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I17">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J17">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N17">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O17">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P17">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q17">
-        <v>0.132809211465</v>
+        <v>0.1006508848705</v>
       </c>
       <c r="R17">
-        <v>0.79685526879</v>
+        <v>0.603905309223</v>
       </c>
       <c r="S17">
-        <v>2.666881252667545E-05</v>
+        <v>3.938710513401948E-05</v>
       </c>
       <c r="T17">
-        <v>1.785019977144351E-05</v>
+        <v>2.664794539501535E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H18">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I18">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J18">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.484987</v>
       </c>
       <c r="O18">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P18">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q18">
-        <v>1.8305724028795</v>
+        <v>1.9355384024615</v>
       </c>
       <c r="R18">
-        <v>10.983434417277</v>
+        <v>11.613230414769</v>
       </c>
       <c r="S18">
-        <v>0.0003675889020827807</v>
+        <v>0.0007574225964011091</v>
       </c>
       <c r="T18">
-        <v>0.0002460377764994243</v>
+        <v>0.0005124457845066242</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H19">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I19">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J19">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N19">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O19">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P19">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q19">
-        <v>5.033940801896999</v>
+        <v>9.481585017188999</v>
       </c>
       <c r="R19">
-        <v>30.203644811382</v>
+        <v>56.889510103134</v>
       </c>
       <c r="S19">
-        <v>0.001010842712152936</v>
+        <v>0.003710371611632229</v>
       </c>
       <c r="T19">
-        <v>0.0006765859683999591</v>
+        <v>0.002510308380510843</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H20">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I20">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J20">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N20">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O20">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P20">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q20">
-        <v>0.16712933719125</v>
+        <v>0.6013574670187499</v>
       </c>
       <c r="R20">
-        <v>0.6685173487649999</v>
+        <v>2.405429868075</v>
       </c>
       <c r="S20">
-        <v>3.356048057280718E-05</v>
+        <v>0.0002353255990453518</v>
       </c>
       <c r="T20">
-        <v>1.49753270054312E-05</v>
+        <v>0.0001061420769068481</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H21">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I21">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J21">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N21">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O21">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P21">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q21">
-        <v>15.3643179815755</v>
+        <v>3.817726275547999</v>
       </c>
       <c r="R21">
-        <v>92.18590788945298</v>
+        <v>22.906357653288</v>
       </c>
       <c r="S21">
-        <v>0.003085238676828142</v>
+        <v>0.001493967851165805</v>
       </c>
       <c r="T21">
-        <v>0.002065038579009866</v>
+        <v>0.001010766685805224</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H22">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I22">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J22">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N22">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O22">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P22">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q22">
-        <v>17.63845853633</v>
+        <v>6.773781558387334</v>
       </c>
       <c r="R22">
-        <v>158.74612682697</v>
+        <v>60.964034025486</v>
       </c>
       <c r="S22">
-        <v>0.003541898478095321</v>
+        <v>0.002650743177651697</v>
       </c>
       <c r="T22">
-        <v>0.003556041087746251</v>
+        <v>0.002690100956160192</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H23">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I23">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J23">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.484987</v>
       </c>
       <c r="O23">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P23">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q23">
-        <v>243.1192465475124</v>
+        <v>130.2612923176287</v>
       </c>
       <c r="R23">
-        <v>2188.073218927611</v>
+        <v>1172.351630858658</v>
       </c>
       <c r="S23">
-        <v>0.04881966797544676</v>
+        <v>0.05097436770684</v>
       </c>
       <c r="T23">
-        <v>0.04901460227741354</v>
+        <v>0.05173122634585523</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H24">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I24">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J24">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N24">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O24">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P24">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q24">
-        <v>668.560223565514</v>
+        <v>638.108505616732</v>
       </c>
       <c r="R24">
-        <v>6017.042012089626</v>
+        <v>5742.976550550588</v>
       </c>
       <c r="S24">
-        <v>0.1342505317845343</v>
+        <v>0.2497071618394152</v>
       </c>
       <c r="T24">
-        <v>0.1347865869194289</v>
+        <v>0.2534147708037688</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H25">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I25">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J25">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N25">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O25">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P25">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q25">
-        <v>22.1965317897325</v>
+        <v>40.471220152025</v>
       </c>
       <c r="R25">
-        <v>133.179190738395</v>
+        <v>242.82732091215</v>
       </c>
       <c r="S25">
-        <v>0.004457184396420948</v>
+        <v>0.01583735905631425</v>
       </c>
       <c r="T25">
-        <v>0.002983321128928907</v>
+        <v>0.01071500629198044</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H26">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I26">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J26">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N26">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O26">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P26">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q26">
-        <v>2040.542840873864</v>
+        <v>256.9321061960907</v>
       </c>
       <c r="R26">
-        <v>18364.88556786478</v>
+        <v>2312.388955764816</v>
       </c>
       <c r="S26">
-        <v>0.4097521088757924</v>
+        <v>0.1005436950909164</v>
       </c>
       <c r="T26">
-        <v>0.4113882269535167</v>
+        <v>0.1020365505720421</v>
       </c>
     </row>
   </sheetData>
